--- a/public/file/account.xlsx
+++ b/public/file/account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BinariesProject\Kalla-Finance\sample upload\new sample master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19BAD9D9-ACE9-4A20-8326-3F777ACCB994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4951C4E-2C85-4129-BC2F-6AB4FDA831F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EEA2E2A4-2A1A-42EB-AB86-BA65A8BEB1B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Description</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Parent</t>
+  </si>
+  <si>
+    <t>Flag Report</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65270852-C609-42C3-B14F-B2CBAF9BCD68}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,10 +418,11 @@
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -429,21 +433,24 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>8000000</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -453,7 +460,7 @@
       <c r="C3">
         <v>8000000</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
     </row>
